--- a/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7203,4 +7204,3364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1168</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2854</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>199.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3942</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3672</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2082</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>51.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0286</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8362</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7888</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7281</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6615</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6430</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5067</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4211</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>40.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>72.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001570</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.90</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>57.59</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001580</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10564,4 +10565,3058 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7852</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5146</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>173.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3676</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3509</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0716</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0070</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9761</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9101</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5253</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4785</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4028</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>56.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001570</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>69.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001580</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方利安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516870</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银华中证800汽车与零部件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13619,4 +13620,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>93</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13628,7 +13629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13639,17 +13640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13659,14 +13680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.56</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5744</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -13675,14 +13718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>87</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.47</v>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -13691,14 +13756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>93</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.4</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0709</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -13707,13 +13794,4061 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9880</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8778</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6750</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>168.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6349</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0511</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0292</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9835</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8773</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7415</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7081</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6891</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5948</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5516</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5392</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3897</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3539</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>49.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002339</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>49.90</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>107</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>93</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>82</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>23.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17747,7 +17748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17758,17 +17759,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17778,14 +17799,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>107</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.47</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -17794,14 +17837,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>79</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.56</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1811</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -17810,14 +17875,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>87</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.47</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6809</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -17826,14 +17913,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>93</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.4</v>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -17842,13 +17951,2749 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8559</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5288</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2621</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2388</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2388</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>160.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2382</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1335</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0346</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>41.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9782</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7891</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7683</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4186</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3844</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>45.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3099</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004517</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方安康混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010707</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010708</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>107</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>87</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>93</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>82</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>23.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20576,7 +20577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20587,17 +20588,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20607,14 +20628,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.34</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2914</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -20623,14 +20666,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>107</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.47</v>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>148.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -20639,14 +20704,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>79</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.56</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7719</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -20655,14 +20742,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>87</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38.47</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2545</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -20671,14 +20780,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>93</v>
-      </c>
-      <c r="D6" t="n">
-        <v>36.4</v>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>157.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7293</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -20687,13 +20818,3145 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0723</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8632</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8171</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8041</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7928</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7157</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5992</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4834</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4658</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4383</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4252</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3838</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3404</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3107</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>37.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010230</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方宝昌混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014499</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001422</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>景顺长城安享回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001194</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001407</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>景顺长城稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012220</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方安泰混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014113</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001423</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城安享回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010231</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方宝昌混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>107</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>93</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>82</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>23.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>29.6</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>33.34</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>38.47</v>
+        <v>33.34</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D5" t="n">
-        <v>34.56</v>
+        <v>38.47</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n">
-        <v>38.47</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D7" t="n">
-        <v>36.4</v>
+        <v>38.47</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>93</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>82</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>23.88</v>
       </c>
     </row>
@@ -600,6 +617,1962 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>139.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1458</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方安泰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4721</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4652</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方宝恒混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方宝恒混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010230</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方宝昌混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012220</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方安泰混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010231</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方宝昌混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3845,7 +5818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6673,7 +8646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10791,7 +12764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13845,7 +15818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17205,7 +19178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20795,7 +22768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600741-华域汽车.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>9.16</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>29.6</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>33.34</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
-        <v>38.47</v>
+        <v>33.34</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D6" t="n">
-        <v>34.56</v>
+        <v>38.47</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D7" t="n">
-        <v>38.47</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D8" t="n">
-        <v>36.4</v>
+        <v>38.47</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3200 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>93</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>82</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>23.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0938</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8687</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6683</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6252</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5627</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5627</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5261</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5205</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003064</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方荣欢定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003332</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方荣发定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009971</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010100</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信鼎诚3个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004225</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保稳诚混合 A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河收益债券</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>28.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>49.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003458</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004226</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保稳诚混合 C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003459</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信鼎诚3个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009972</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3804,2532 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方宝元债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>126.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1915</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方安泰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4888</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006585</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方宝元债券C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方宝恒混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方宝恒混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010230</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方宝昌混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012945</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方宝裕混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015160</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012220</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方安泰混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015161</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>53.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003476</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方安颐混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005397</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方安养混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>53.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010231</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方宝昌混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012946</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方宝裕混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2572,7 +8285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5818,7 +11531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8646,7 +14359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12764,7 +18477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15818,7 +21531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19178,7 +24891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22766,3174 +28479,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H83"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证上海国企ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.5099</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>169101</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红睿丰灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>61.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.6436</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001112</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红中国优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>64.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.7240</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005668</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通新能源汽车主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0938</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>630002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商盛世成长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.93</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8687</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001955</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧养老产业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6683</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000970</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方红睿元三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.55</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6252</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001883</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧新动力混合(LOF) -E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17.64</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5627</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>166009</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧新动力混合(LOF) -A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5627</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009891</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>融通产业趋势臻选股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17.25</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>75.30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5261</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005421</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧嘉泽灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5205</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008418</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>惠升惠泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>15.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>72.58</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4446</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>202009</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方盛元红利混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3172</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.72</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2434</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000612</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宝生态中国混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1801</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001309</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东方红睿逸定期开放混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>21.87</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1731</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008419</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>惠升惠泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>72.58</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1477</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>020018</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰金鹿混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1355</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>161033</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富国中证智能汽车指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1332</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009835</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>融通新能源汽车主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1299</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003064</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>南方荣欢定期开放混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>29.85</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1261</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005674</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>诺德消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88.12</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1242</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003332</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方荣发定期开放混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>29.81</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1175</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004236</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中欧新动力混合(LOF) -C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1161</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009486</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>72.94</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1042</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009971</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0935</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0924</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>519963</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>长信利盈灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0904</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001667</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>南方转型增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0864</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009005</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0841</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010100</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>创金合信鼎诚3个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0837</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>673060</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0799</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002389</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0794</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>700001</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>平安行业先锋混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0791</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001427</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0781</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>519961</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>长信利广灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004225</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>国寿安保稳诚混合 A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>23.08</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>004405</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>国寿安保稳寿混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0718</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0606</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001488</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>万家瑞丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0591</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>151002</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>银河收益债券</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>24.37</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0578</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>001318</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0576</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>004756</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>国寿安保稳吉混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>28.72</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>007590</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>华宝绿色领先股票</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0550</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>001536</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>南方君选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>49.76</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0446</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>202213</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>南方核心竞争混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>72.24</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0435</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>003626</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009258</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>009700</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>长江添利混合A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>37.91</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>005000</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>泰康泉林量化价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0361</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>000767</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>华富国泰民安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>71.62</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0350</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>002060</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>003458</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>006535</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>恒生前海恒锦裕利混合A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>29.92</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>004406</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>国寿安保稳寿混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>001489</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>万家瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>002634</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>华宝未来主导产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>004226</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>国寿安保稳诚混合 C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>23.08</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>002390</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>006433</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>006536</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>恒生前海恒锦裕利混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>29.92</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>519960</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>长信利广灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>004757</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>国寿安保稳吉混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>28.72</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>009006</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>700004</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>平安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>77.44</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>009701</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>长江添利混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>37.91</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>001068</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>华融新锐灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>70.59</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>002598</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>平安消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>003459</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>519962</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>长信利盈灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>001446</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>002599</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>平安消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>009487</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合C</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>72.94</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>005111</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>泰康泉林量化价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>006009</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>国融融银灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>33.01</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>010101</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>创金合信鼎诚3个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>006010</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>国融融银灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>33.01</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>009972</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合C</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>